--- a/doc/task.xlsx
+++ b/doc/task.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>说明</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -95,10 +95,6 @@
   </si>
   <si>
     <t>管理系统异常日志,JOB异常日志,用户登录日志</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成,未测试数据</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -313,12 +309,24 @@
     <t>文本消息,图片消息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>数据库表设计完成；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库初始化数据100%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service组件完成50%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,9 +449,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -468,6 +473,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -483,7 +491,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -557,7 +565,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -592,7 +599,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -768,21 +774,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="14.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.5" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
@@ -790,386 +796,400 @@
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" ht="81">
+      <c r="A3" s="12"/>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" ht="27">
+      <c r="A4" s="12"/>
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="40.5">
+      <c r="A5" s="12"/>
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" ht="27">
+      <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="6" t="s">
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" ht="67.5">
+      <c r="A7" s="12"/>
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="12"/>
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="8" t="s">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="12"/>
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="12"/>
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="8" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="12"/>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="12"/>
+      <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="12"/>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="12"/>
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="12"/>
+      <c r="B17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="12"/>
+      <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="12"/>
+      <c r="B19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="12"/>
+      <c r="B20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="10"/>
+      <c r="B22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="10"/>
+      <c r="B23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" ht="27">
+      <c r="A24" s="11"/>
+      <c r="B24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" ht="40.5" hidden="1">
+      <c r="A25" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" ht="40.5" hidden="1">
+      <c r="A26" s="12"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" ht="94.5" hidden="1">
+      <c r="A27" s="12"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" hidden="1">
+      <c r="A28" s="12"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" hidden="1">
+      <c r="A29" s="12"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" ht="54" hidden="1">
+      <c r="A30" s="12"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:4" ht="54" hidden="1">
+      <c r="A31" s="12"/>
+      <c r="B31" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" hidden="1">
+      <c r="A32" s="12"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" ht="67.5" hidden="1">
+      <c r="A33" s="12"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="11"/>
-      <c r="B22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="11"/>
-      <c r="B23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="12"/>
-      <c r="B24" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:4" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="1:4" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="1:4" ht="54" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" spans="1:4" ht="121.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
-      <c r="B31" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="1:4" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="1:4" ht="121.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="9"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="10" t="s">
+      <c r="C34" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="10"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="11"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="5" t="s">
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="10"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="11"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="5" t="s">
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="10"/>
+      <c r="B37" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="11"/>
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="10"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="8"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="11"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="5" t="s">
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="11"/>
+      <c r="B39" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="8"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="12"/>
-      <c r="B39" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D39" s="9"/>
+      <c r="D39" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A24"/>
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A24"/>
     <mergeCell ref="A25:A33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1179,12 +1199,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1192,12 +1212,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/task.xlsx
+++ b/doc/task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
   <si>
     <t>说明</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -310,15 +310,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>数据库表设计完成；</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库初始化数据100%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Service组件完成50%</t>
+    <t>Service组件完成  总进度50%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库初始化数据  总进度100%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service完成  总进度50%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -464,6 +464,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -471,9 +474,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -778,14 +778,14 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="14.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.5" customWidth="1"/>
-    <col min="4" max="4" width="27.375" customWidth="1"/>
+    <col min="4" max="4" width="45.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -797,7 +797,7 @@
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -809,7 +809,7 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="81">
-      <c r="A3" s="12"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -819,19 +819,19 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="27">
-      <c r="A4" s="12"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>66</v>
+      <c r="D4" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="40.5">
-      <c r="A5" s="12"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
@@ -841,7 +841,7 @@
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" ht="27">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -853,7 +853,7 @@
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="67.5">
-      <c r="A7" s="12"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -863,7 +863,7 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -877,7 +877,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="12"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
@@ -887,7 +887,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="12"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
@@ -897,7 +897,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="12"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
@@ -907,7 +907,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="12"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
@@ -919,7 +919,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="12"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
@@ -931,7 +931,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="12"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
@@ -941,7 +941,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -951,11 +951,11 @@
         <v>29</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="12"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
@@ -963,21 +963,23 @@
         <v>31</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="12"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="8" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="12"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
@@ -985,11 +987,11 @@
         <v>35</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="12"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>36</v>
       </c>
@@ -997,21 +999,23 @@
         <v>37</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="12"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1021,7 +1025,7 @@
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="10"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="3" t="s">
         <v>42</v>
       </c>
@@ -1029,7 +1033,7 @@
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="10"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="3" t="s">
         <v>43</v>
       </c>
@@ -1037,7 +1041,7 @@
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" ht="27">
-      <c r="A24" s="11"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="5" t="s">
         <v>44</v>
       </c>
@@ -1045,10 +1049,10 @@
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" ht="40.5" hidden="1">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -1057,48 +1061,48 @@
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" ht="40.5" hidden="1">
-      <c r="A26" s="12"/>
-      <c r="B26" s="10"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" ht="94.5" hidden="1">
-      <c r="A27" s="12"/>
-      <c r="B27" s="10"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" hidden="1">
-      <c r="A28" s="12"/>
-      <c r="B28" s="10"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" hidden="1">
-      <c r="A29" s="12"/>
-      <c r="B29" s="10"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" ht="54" hidden="1">
-      <c r="A30" s="12"/>
-      <c r="B30" s="11"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" ht="54" hidden="1">
-      <c r="A31" s="12"/>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="9"/>
+      <c r="B31" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -1107,26 +1111,26 @@
       <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4" hidden="1">
-      <c r="A32" s="12"/>
-      <c r="B32" s="10"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" ht="67.5" hidden="1">
-      <c r="A33" s="12"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -1135,24 +1139,24 @@
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="10"/>
-      <c r="B35" s="12"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="10"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="10"/>
-      <c r="B37" s="12" t="s">
+      <c r="A37" s="11"/>
+      <c r="B37" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -1161,15 +1165,15 @@
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="10"/>
-      <c r="B38" s="12"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="11"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="3" t="s">
         <v>64</v>
       </c>
@@ -1180,17 +1184,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A24"/>
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="A25:A33"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/task.xlsx
+++ b/doc/task.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
   <si>
     <t>说明</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -319,6 +319,18 @@
   </si>
   <si>
     <t>Service完成  总进度50%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service组件完成 总进度70%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service组件完成 总进度50%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service组件完成 总进度80%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -438,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -464,17 +476,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -777,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -797,7 +815,7 @@
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -809,7 +827,7 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="81">
-      <c r="A3" s="9"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -819,7 +837,7 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="27">
-      <c r="A4" s="9"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -831,7 +849,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="40.5">
-      <c r="A5" s="9"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
@@ -841,7 +859,7 @@
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" ht="27">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -853,7 +871,7 @@
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="67.5">
-      <c r="A7" s="9"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -863,7 +881,7 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -877,7 +895,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="9"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
@@ -887,7 +905,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="9"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
@@ -897,7 +915,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="9"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
@@ -907,7 +925,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="9"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
@@ -919,7 +937,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="9"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
@@ -931,7 +949,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="9"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
@@ -941,7 +959,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -955,7 +973,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="9"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
@@ -967,7 +985,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="9"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="3" t="s">
         <v>32</v>
       </c>
@@ -979,7 +997,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="9"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
@@ -991,7 +1009,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="9"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="3" t="s">
         <v>36</v>
       </c>
@@ -1003,7 +1021,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="9"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="3" t="s">
         <v>38</v>
       </c>
@@ -1015,7 +1033,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1025,7 +1043,7 @@
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="11"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="3" t="s">
         <v>42</v>
       </c>
@@ -1033,7 +1051,7 @@
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="11"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="3" t="s">
         <v>43</v>
       </c>
@@ -1041,7 +1059,7 @@
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" ht="27">
-      <c r="A24" s="12"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="5" t="s">
         <v>44</v>
       </c>
@@ -1049,10 +1067,10 @@
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" ht="40.5" hidden="1">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -1061,48 +1079,48 @@
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" ht="40.5" hidden="1">
-      <c r="A26" s="9"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" ht="94.5" hidden="1">
-      <c r="A27" s="9"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" hidden="1">
-      <c r="A28" s="9"/>
-      <c r="B28" s="11"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" hidden="1">
-      <c r="A29" s="9"/>
-      <c r="B29" s="11"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="10"/>
       <c r="C29" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" ht="54" hidden="1">
-      <c r="A30" s="9"/>
-      <c r="B30" s="12"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" ht="54" hidden="1">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10" t="s">
+      <c r="A31" s="12"/>
+      <c r="B31" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -1111,26 +1129,26 @@
       <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4" hidden="1">
-      <c r="A32" s="9"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" ht="67.5" hidden="1">
-      <c r="A33" s="9"/>
-      <c r="B33" s="12"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -1139,62 +1157,67 @@
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="11"/>
-      <c r="B35" s="9"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="11"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="7"/>
+      <c r="D36" s="13" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="11"/>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="10"/>
+      <c r="B37" s="12" t="s">
         <v>61</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="11"/>
-      <c r="B38" s="9"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="7"/>
+      <c r="D38" s="13" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="12"/>
+      <c r="A39" s="11"/>
       <c r="B39" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="8"/>
+      <c r="D39" s="14" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A24"/>
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="A25:A33"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/task.xlsx
+++ b/doc/task.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
   <si>
     <t>说明</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -333,12 +333,20 @@
     <t>Service组件完成 总进度80%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Service完成  总进度50%
+奖品管理 增删改查 UI 100%;
+奖品发放
+--&gt;query 100%,service有问题
+--&gt;insert 80%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,6 +484,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -484,15 +501,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,7 +517,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -583,6 +591,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -617,6 +626,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -792,21 +802,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="14.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.5" customWidth="1"/>
     <col min="4" max="4" width="45.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
@@ -814,8 +824,8 @@
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -826,8 +836,8 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="81">
-      <c r="A3" s="12"/>
+    <row r="3" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+      <c r="A3" s="11"/>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -836,8 +846,8 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" ht="27">
-      <c r="A4" s="12"/>
+    <row r="4" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="11"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -845,11 +855,11 @@
         <v>7</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="40.5">
-      <c r="A5" s="12"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
@@ -858,8 +868,8 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" ht="27">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -870,8 +880,8 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="67.5">
-      <c r="A7" s="12"/>
+    <row r="7" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="11"/>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -880,8 +890,8 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -894,8 +904,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="12"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="11"/>
       <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
@@ -904,8 +914,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="12"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
       <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
@@ -914,8 +924,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="12"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
       <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
@@ -924,8 +934,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="12"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
       <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
@@ -936,8 +946,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="12"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
       <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
@@ -948,8 +958,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="12"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
@@ -958,8 +968,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -972,8 +982,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="12"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
       <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
@@ -984,8 +994,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="12"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
       <c r="B17" s="3" t="s">
         <v>32</v>
       </c>
@@ -996,8 +1006,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="12"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="11"/>
       <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
@@ -1008,8 +1018,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="12"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="11"/>
       <c r="B19" s="3" t="s">
         <v>36</v>
       </c>
@@ -1020,8 +1030,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="12"/>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="11"/>
       <c r="B20" s="3" t="s">
         <v>38</v>
       </c>
@@ -1032,8 +1042,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1042,35 +1052,35 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="10"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="13"/>
       <c r="B22" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="10"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="13"/>
       <c r="B23" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" ht="27">
-      <c r="A24" s="11"/>
+    <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
       <c r="B24" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" ht="40.5" hidden="1">
-      <c r="A25" s="12" t="s">
+    <row r="25" spans="1:4" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="12" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -1078,49 +1088,49 @@
       </c>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="40.5" hidden="1">
-      <c r="A26" s="12"/>
-      <c r="B26" s="10"/>
+    <row r="26" spans="1:4" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="11"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="1:4" ht="94.5" hidden="1">
-      <c r="A27" s="12"/>
-      <c r="B27" s="10"/>
+    <row r="27" spans="1:4" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="11"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" hidden="1">
-      <c r="A28" s="12"/>
-      <c r="B28" s="10"/>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="11"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="1:4" hidden="1">
-      <c r="A29" s="12"/>
-      <c r="B29" s="10"/>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="11"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="1:4" ht="54" hidden="1">
-      <c r="A30" s="12"/>
-      <c r="B30" s="11"/>
+    <row r="30" spans="1:4" ht="54" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="11"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4" ht="54" hidden="1">
-      <c r="A31" s="12"/>
-      <c r="B31" s="9" t="s">
+    <row r="31" spans="1:4" ht="54" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="11"/>
+      <c r="B31" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -1128,27 +1138,27 @@
       </c>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4" hidden="1">
-      <c r="A32" s="12"/>
-      <c r="B32" s="10"/>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="11"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D32" s="7"/>
     </row>
-    <row r="33" spans="1:4" ht="67.5" hidden="1">
-      <c r="A33" s="12"/>
-      <c r="B33" s="11"/>
+    <row r="33" spans="1:4" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="11"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -1156,68 +1166,68 @@
       </c>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="10"/>
-      <c r="B35" s="12"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="13"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="10"/>
-      <c r="B36" s="12"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="13"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="10"/>
-      <c r="B37" s="12" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="13"/>
+      <c r="B37" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="10"/>
-      <c r="B38" s="12"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="13"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="11"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="14"/>
       <c r="B39" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="10" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A24"/>
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="A25:A33"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1226,12 +1236,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1239,12 +1249,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/task.xlsx
+++ b/doc/task.xlsx
@@ -338,7 +338,7 @@
 奖品管理 增删改查 UI 100%;
 奖品发放
 --&gt;query 100%,service有问题
---&gt;insert 80%</t>
+--&gt;insert 100%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -490,9 +490,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -500,6 +497,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -806,7 +806,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -825,7 +825,7 @@
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -837,7 +837,7 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -847,7 +847,7 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="11"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -859,7 +859,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
@@ -869,7 +869,7 @@
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -881,7 +881,7 @@
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -891,7 +891,7 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -905,7 +905,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
@@ -915,7 +915,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
@@ -925,7 +925,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
@@ -935,7 +935,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
@@ -947,7 +947,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
@@ -959,7 +959,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
@@ -969,7 +969,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -983,7 +983,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="11"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
@@ -995,7 +995,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="3" t="s">
         <v>32</v>
       </c>
@@ -1007,7 +1007,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
@@ -1019,7 +1019,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="11"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="3" t="s">
         <v>36</v>
       </c>
@@ -1031,7 +1031,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="3" t="s">
         <v>38</v>
       </c>
@@ -1043,7 +1043,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1053,7 +1053,7 @@
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="13"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="3" t="s">
         <v>42</v>
       </c>
@@ -1061,7 +1061,7 @@
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="13"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="3" t="s">
         <v>43</v>
       </c>
@@ -1069,7 +1069,7 @@
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="5" t="s">
         <v>44</v>
       </c>
@@ -1077,10 +1077,10 @@
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -1089,48 +1089,48 @@
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="11"/>
-      <c r="B26" s="13"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="11"/>
-      <c r="B27" s="13"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="11"/>
-      <c r="B28" s="13"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="11"/>
-      <c r="B29" s="13"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" ht="54" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="11"/>
-      <c r="B30" s="14"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" ht="54" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12" t="s">
+      <c r="A31" s="14"/>
+      <c r="B31" s="11" t="s">
         <v>53</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -1139,26 +1139,26 @@
       <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="11"/>
-      <c r="B32" s="13"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="11"/>
-      <c r="B33" s="14"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -1167,16 +1167,16 @@
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="13"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="13"/>
-      <c r="B36" s="11"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="4" t="s">
         <v>60</v>
       </c>
@@ -1185,8 +1185,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="13"/>
-      <c r="B37" s="11" t="s">
+      <c r="A37" s="12"/>
+      <c r="B37" s="14" t="s">
         <v>61</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -1194,8 +1194,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="13"/>
-      <c r="B38" s="11"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="4" t="s">
         <v>63</v>
       </c>
@@ -1204,7 +1204,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="14"/>
+      <c r="A39" s="13"/>
       <c r="B39" s="3" t="s">
         <v>64</v>
       </c>
@@ -1217,17 +1217,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A24"/>
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="A25:A33"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/task.xlsx
+++ b/doc/task.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
   <si>
     <t>说明</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -310,10 +310,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Service组件完成  总进度50%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>数据库初始化数据  总进度100%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -345,8 +341,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,6 +486,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -497,9 +496,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -517,7 +513,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -591,7 +587,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -626,7 +621,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -802,21 +796,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="14.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.5" customWidth="1"/>
     <col min="4" max="4" width="45.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
@@ -824,8 +818,8 @@
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -836,8 +830,8 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
+    <row r="3" spans="1:4" ht="81">
+      <c r="A3" s="11"/>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -846,8 +840,8 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
+    <row r="4" spans="1:4" ht="67.5">
+      <c r="A4" s="11"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -855,11 +849,11 @@
         <v>7</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="40.5">
+      <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
@@ -868,8 +862,8 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:4" ht="27">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -880,8 +874,8 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
+    <row r="7" spans="1:4" ht="67.5">
+      <c r="A7" s="11"/>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -890,8 +884,8 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -904,8 +898,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
+    <row r="9" spans="1:4">
+      <c r="A9" s="11"/>
       <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
@@ -914,8 +908,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
+    <row r="10" spans="1:4">
+      <c r="A10" s="11"/>
       <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
@@ -924,8 +918,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:4">
+      <c r="A11" s="11"/>
       <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
@@ -934,8 +928,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
+    <row r="12" spans="1:4">
+      <c r="A12" s="11"/>
       <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
@@ -943,11 +937,11 @@
         <v>23</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="11"/>
       <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
@@ -955,11 +949,11 @@
         <v>25</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="11"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
@@ -968,8 +962,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -979,11 +973,11 @@
         <v>29</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="11"/>
       <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
@@ -991,11 +985,11 @@
         <v>31</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="11"/>
       <c r="B17" s="3" t="s">
         <v>32</v>
       </c>
@@ -1003,11 +997,11 @@
         <v>33</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="11"/>
       <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
@@ -1015,11 +1009,11 @@
         <v>35</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="11"/>
       <c r="B19" s="3" t="s">
         <v>36</v>
       </c>
@@ -1027,11 +1021,11 @@
         <v>37</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="11"/>
       <c r="B20" s="3" t="s">
         <v>38</v>
       </c>
@@ -1039,11 +1033,11 @@
         <v>39</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1052,35 +1046,35 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="12"/>
+    <row r="22" spans="1:4">
+      <c r="A22" s="13"/>
       <c r="B22" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="12"/>
+    <row r="23" spans="1:4">
+      <c r="A23" s="13"/>
       <c r="B23" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="13"/>
+    <row r="24" spans="1:4" ht="27">
+      <c r="A24" s="14"/>
       <c r="B24" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="14" t="s">
+    <row r="25" spans="1:4" ht="40.5" hidden="1">
+      <c r="A25" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="12" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -1088,49 +1082,49 @@
       </c>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="14"/>
-      <c r="B26" s="12"/>
+    <row r="26" spans="1:4" ht="40.5" hidden="1">
+      <c r="A26" s="11"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="1:4" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="14"/>
-      <c r="B27" s="12"/>
+    <row r="27" spans="1:4" ht="94.5" hidden="1">
+      <c r="A27" s="11"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="14"/>
-      <c r="B28" s="12"/>
+    <row r="28" spans="1:4" hidden="1">
+      <c r="A28" s="11"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="14"/>
-      <c r="B29" s="12"/>
+    <row r="29" spans="1:4" hidden="1">
+      <c r="A29" s="11"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="1:4" ht="54" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="14"/>
-      <c r="B30" s="13"/>
+    <row r="30" spans="1:4" ht="54" hidden="1">
+      <c r="A30" s="11"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4" ht="54" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="14"/>
-      <c r="B31" s="11" t="s">
+    <row r="31" spans="1:4" ht="54" hidden="1">
+      <c r="A31" s="11"/>
+      <c r="B31" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -1138,27 +1132,27 @@
       </c>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="14"/>
-      <c r="B32" s="12"/>
+    <row r="32" spans="1:4" hidden="1">
+      <c r="A32" s="11"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D32" s="7"/>
     </row>
-    <row r="33" spans="1:4" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="14"/>
-      <c r="B33" s="13"/>
+    <row r="33" spans="1:4" ht="67.5" hidden="1">
+      <c r="A33" s="11"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="11" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -1166,45 +1160,45 @@
       </c>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="12"/>
-      <c r="B35" s="14"/>
+    <row r="35" spans="1:4">
+      <c r="A35" s="13"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="12"/>
-      <c r="B36" s="14"/>
+    <row r="36" spans="1:4">
+      <c r="A36" s="13"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="12"/>
-      <c r="B37" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="13"/>
+      <c r="B37" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="12"/>
-      <c r="B38" s="14"/>
+    <row r="38" spans="1:4">
+      <c r="A38" s="13"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="13"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="14"/>
       <c r="B39" s="3" t="s">
         <v>64</v>
       </c>
@@ -1212,22 +1206,22 @@
         <v>65</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A24"/>
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="A25:A33"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1236,12 +1230,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1249,12 +1243,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/task.xlsx
+++ b/doc/task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
   <si>
     <t>说明</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -335,6 +335,14 @@
 奖品发放
 --&gt;query 100%,service有问题
 --&gt;insert 100%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Service完成  总进度50%
+2.无法实现
+3.Service完成  总进度50%
+4.Service完成  总进度50%
+发短信,发邮件  =&gt;  Service完成  总进度50%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -486,9 +494,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -496,6 +501,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -799,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -819,7 +827,7 @@
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -831,17 +839,19 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="81">
-      <c r="A3" s="11"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="67.5">
-      <c r="A4" s="11"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -853,7 +863,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="40.5">
-      <c r="A5" s="11"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
@@ -863,7 +873,7 @@
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" ht="27">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -875,7 +885,7 @@
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="67.5">
-      <c r="A7" s="11"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -885,7 +895,7 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -899,7 +909,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="11"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
@@ -909,7 +919,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="11"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
@@ -919,7 +929,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="11"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
@@ -929,7 +939,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="11"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
@@ -941,7 +951,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="11"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
@@ -953,7 +963,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="11"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
@@ -963,7 +973,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -977,7 +987,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="11"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
@@ -989,7 +999,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="11"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="3" t="s">
         <v>32</v>
       </c>
@@ -1001,7 +1011,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="11"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
@@ -1013,7 +1023,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="11"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="3" t="s">
         <v>36</v>
       </c>
@@ -1025,7 +1035,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="11"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="3" t="s">
         <v>38</v>
       </c>
@@ -1037,7 +1047,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1047,7 +1057,7 @@
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="3" t="s">
         <v>42</v>
       </c>
@@ -1055,7 +1065,7 @@
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="13"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="3" t="s">
         <v>43</v>
       </c>
@@ -1063,7 +1073,7 @@
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" ht="27">
-      <c r="A24" s="14"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="5" t="s">
         <v>44</v>
       </c>
@@ -1071,10 +1081,10 @@
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" ht="40.5" hidden="1">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -1083,48 +1093,48 @@
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" ht="40.5" hidden="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="13"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" ht="94.5" hidden="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="13"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" hidden="1">
-      <c r="A28" s="11"/>
-      <c r="B28" s="13"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" hidden="1">
-      <c r="A29" s="11"/>
-      <c r="B29" s="13"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" ht="54" hidden="1">
-      <c r="A30" s="11"/>
-      <c r="B30" s="14"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" ht="54" hidden="1">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12" t="s">
+      <c r="A31" s="14"/>
+      <c r="B31" s="11" t="s">
         <v>53</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -1133,26 +1143,26 @@
       <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4" hidden="1">
-      <c r="A32" s="11"/>
-      <c r="B32" s="13"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" ht="67.5" hidden="1">
-      <c r="A33" s="11"/>
-      <c r="B33" s="14"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -1161,16 +1171,16 @@
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="13"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="13"/>
-      <c r="B36" s="11"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="4" t="s">
         <v>60</v>
       </c>
@@ -1179,8 +1189,8 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="13"/>
-      <c r="B37" s="11" t="s">
+      <c r="A37" s="12"/>
+      <c r="B37" s="14" t="s">
         <v>61</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -1188,8 +1198,8 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="13"/>
-      <c r="B38" s="11"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="4" t="s">
         <v>63</v>
       </c>
@@ -1198,7 +1208,7 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="14"/>
+      <c r="A39" s="13"/>
       <c r="B39" s="3" t="s">
         <v>64</v>
       </c>
@@ -1211,17 +1221,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A24"/>
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="A25:A33"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/task.xlsx
+++ b/doc/task.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
   <si>
     <t>说明</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -318,18 +318,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Service组件完成 总进度70%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Service组件完成 总进度50%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Service组件完成 总进度80%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Service完成  总进度50%
 奖品管理 增删改查 UI 100%;
 奖品发放
@@ -343,6 +331,18 @@
 3.Service完成  总进度50%
 4.Service完成  总进度50%
 发短信,发邮件  =&gt;  Service完成  总进度50%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service组件完成 总进度100%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Service组件完成 总进度100% </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service组件完成 总进度100% 支持：关注，取消关注，进入公众号分享地理位置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -494,6 +494,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -501,9 +504,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -807,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -827,7 +827,7 @@
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -839,7 +839,7 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="81">
-      <c r="A3" s="14"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -847,11 +847,11 @@
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="67.5">
-      <c r="A4" s="14"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -859,11 +859,11 @@
         <v>7</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="40.5">
-      <c r="A5" s="14"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
@@ -873,7 +873,7 @@
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" ht="27">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -885,7 +885,7 @@
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="67.5">
-      <c r="A7" s="14"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -895,7 +895,7 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -909,7 +909,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="14"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
@@ -919,7 +919,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="14"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
@@ -929,7 +929,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="14"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
@@ -939,7 +939,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="14"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
@@ -951,7 +951,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="14"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
@@ -963,7 +963,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="14"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
@@ -973,7 +973,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -987,7 +987,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="14"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
@@ -999,7 +999,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="14"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="3" t="s">
         <v>32</v>
       </c>
@@ -1011,7 +1011,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="14"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
@@ -1023,7 +1023,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="14"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="3" t="s">
         <v>36</v>
       </c>
@@ -1035,7 +1035,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="14"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="3" t="s">
         <v>38</v>
       </c>
@@ -1047,7 +1047,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1057,7 +1057,7 @@
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="12"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="3" t="s">
         <v>42</v>
       </c>
@@ -1065,7 +1065,7 @@
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="12"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="3" t="s">
         <v>43</v>
       </c>
@@ -1073,7 +1073,7 @@
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" ht="27">
-      <c r="A24" s="13"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="5" t="s">
         <v>44</v>
       </c>
@@ -1081,10 +1081,10 @@
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" ht="40.5" hidden="1">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="12" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -1093,48 +1093,48 @@
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" ht="40.5" hidden="1">
-      <c r="A26" s="14"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" ht="94.5" hidden="1">
-      <c r="A27" s="14"/>
-      <c r="B27" s="12"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" hidden="1">
-      <c r="A28" s="14"/>
-      <c r="B28" s="12"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" hidden="1">
-      <c r="A29" s="14"/>
-      <c r="B29" s="12"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" ht="54" hidden="1">
-      <c r="A30" s="14"/>
-      <c r="B30" s="13"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" ht="54" hidden="1">
-      <c r="A31" s="14"/>
-      <c r="B31" s="11" t="s">
+      <c r="A31" s="11"/>
+      <c r="B31" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -1143,44 +1143,48 @@
       <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4" hidden="1">
-      <c r="A32" s="14"/>
-      <c r="B32" s="12"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" ht="67.5" hidden="1">
-      <c r="A33" s="14"/>
-      <c r="B33" s="13"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" s="9" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="12"/>
-      <c r="B35" s="14"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="7"/>
+      <c r="D35" s="9" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="12"/>
-      <c r="B36" s="14"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="4" t="s">
         <v>60</v>
       </c>
@@ -1189,26 +1193,29 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="12"/>
-      <c r="B37" s="14" t="s">
+      <c r="A37" s="13"/>
+      <c r="B37" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="D37" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="12"/>
-      <c r="B38" s="14"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="13"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="3" t="s">
         <v>64</v>
       </c>
@@ -1216,22 +1223,22 @@
         <v>65</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A24"/>
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="A25:A33"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/task.xlsx
+++ b/doc/task.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
   <si>
     <t>说明</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -310,39 +310,42 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>数据库初始化数据  总进度100%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Service完成  总进度50%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Service完成  总进度50%
+    <t>Service组件完成 总进度100%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Service组件完成 总进度100% </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service组件完成 总进度100% 支持：关注，取消关注，进入公众号分享地理位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Service完成
+2.无法实现
+3.Service完成
+4.Service完成
+发短信,发邮件  =&gt;  Service完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service完成
 奖品管理 增删改查 UI 100%;
 奖品发放
---&gt;query 100%,service有问题
+--&gt;query 100%
 --&gt;insert 100%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.Service完成  总进度50%
-2.无法实现
-3.Service完成  总进度50%
-4.Service完成  总进度50%
-发短信,发邮件  =&gt;  Service完成  总进度50%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Service组件完成 总进度100%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Service组件完成 总进度100% </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Service组件完成 总进度100% 支持：关注，取消关注，进入公众号分享地理位置</t>
+    <t>Service完成</t>
+  </si>
+  <si>
+    <t>Service完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库初始化数据  完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -398,7 +401,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -421,48 +424,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -470,41 +436,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -807,15 +758,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="14.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.5" customWidth="1"/>
-    <col min="4" max="4" width="45.375" customWidth="1"/>
+    <col min="4" max="4" width="45.375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -827,418 +778,424 @@
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="81">
-      <c r="A3" s="11"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="67.5">
-      <c r="A4" s="11"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="40.5">
+      <c r="A5" s="6"/>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="27">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="67.5">
+      <c r="A7" s="6"/>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="6"/>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="6"/>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="6"/>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="6"/>
+      <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="6"/>
+      <c r="B16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="6"/>
+      <c r="B17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="6"/>
+      <c r="B18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="6"/>
+      <c r="B19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="6"/>
+      <c r="B20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="6"/>
+      <c r="B22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="6"/>
+      <c r="B23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="27">
+      <c r="A24" s="6"/>
+      <c r="B24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" ht="40.5" hidden="1">
+      <c r="A25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" ht="40.5" hidden="1">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" ht="94.5" hidden="1">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" hidden="1">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" hidden="1">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" ht="54" hidden="1">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" ht="54" hidden="1">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" hidden="1">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" ht="67.5" hidden="1">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="27">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="40.5">
-      <c r="A5" s="11"/>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" ht="27">
-      <c r="A6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" ht="67.5">
-      <c r="A7" s="11"/>
-      <c r="B7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="11"/>
-      <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="11"/>
-      <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="11"/>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="11"/>
-      <c r="B12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="7" t="s">
+    <row r="38" spans="1:4">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="6"/>
+      <c r="B39" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="11"/>
-      <c r="B13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="11"/>
-      <c r="B14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="11"/>
-      <c r="B16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="11"/>
-      <c r="B17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="11"/>
-      <c r="B18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="11"/>
-      <c r="B19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="11"/>
-      <c r="B20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="13"/>
-      <c r="B22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="13"/>
-      <c r="B23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" ht="27">
-      <c r="A24" s="14"/>
-      <c r="B24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" ht="40.5" hidden="1">
-      <c r="A25" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" ht="40.5" hidden="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:4" ht="94.5" hidden="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4" hidden="1">
-      <c r="A28" s="11"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:4" hidden="1">
-      <c r="A29" s="11"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="1:4" ht="54" hidden="1">
-      <c r="A30" s="11"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="1:4" ht="54" hidden="1">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" hidden="1">
-      <c r="A32" s="11"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" ht="67.5" hidden="1">
-      <c r="A33" s="11"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="13"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="13"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="13"/>
-      <c r="B37" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="13"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="14"/>
-      <c r="B39" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A24"/>
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="A25:A33"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
